--- a/air/air.xlsx
+++ b/air/air.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="14900" windowHeight="22840" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="34280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="4" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -732,6 +732,20 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>kgb</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通地铁
+(建成)</t>
+    <rPh sb="0" eb="1">
+      <t>buce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fbqr</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>vfdn</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1125,11 +1139,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E47"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1137,12 +1151,12 @@
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="5" width="10.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1155,11 +1169,14 @@
       <c r="D1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1174,12 +1191,15 @@
         <f>2029+23</f>
         <v>2052</v>
       </c>
-      <c r="E2" s="5">
-        <f>C2+D2/100</f>
-        <v>122.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <f>C2+D2/100+E2*2.5</f>
+        <v>124.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1194,12 +1214,16 @@
         <f>3824+407</f>
         <v>4231</v>
       </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E47" si="0">C3+D3/100</f>
-        <v>154.31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="4">
+        <f>2+2</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F47" si="0">C3+D3/100+E3*2.5</f>
+        <v>164.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1212,12 +1236,15 @@
       <c r="D4" s="4">
         <v>268</v>
       </c>
-      <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>23.68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1230,12 +1257,15 @@
       <c r="D5" s="4">
         <v>366</v>
       </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>42.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>47.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1248,12 +1278,13 @@
       <c r="D6" s="4">
         <v>41</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>9.91</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -1266,12 +1297,13 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1284,12 +1316,13 @@
       <c r="D8" s="4">
         <v>48</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>12.88</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1302,12 +1335,15 @@
       <c r="D9" s="4">
         <v>502</v>
       </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>29.22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1320,12 +1356,13 @@
       <c r="D10" s="4">
         <v>159</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>18.89</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1338,12 +1375,15 @@
       <c r="D11" s="4">
         <v>164</v>
       </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>19.14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>21.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1356,12 +1396,13 @@
       <c r="D12" s="4">
         <v>89</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>12.49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1374,12 +1415,13 @@
       <c r="D13" s="4">
         <v>121</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
@@ -1392,12 +1434,13 @@
       <c r="D14" s="4">
         <v>39</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4"/>
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>10.690000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1410,12 +1453,15 @@
       <c r="D15" s="4">
         <v>374</v>
       </c>
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>29.54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>34.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -1428,12 +1474,13 @@
       <c r="D16" s="4">
         <v>107</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4"/>
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>7.67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1442,12 +1489,13 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5">
+      <c r="E17" s="4"/>
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1460,12 +1508,13 @@
       <c r="D18" s="4">
         <v>9</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4"/>
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -1478,12 +1527,13 @@
       <c r="D19" s="4">
         <v>39</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4"/>
+      <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>2.39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1496,12 +1546,13 @@
       <c r="D20" s="4">
         <v>18</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4"/>
+      <c r="F20" s="5">
         <f t="shared" si="0"/>
         <v>2.68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1514,12 +1565,13 @@
       <c r="D21" s="4">
         <v>95</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4"/>
+      <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1532,12 +1584,13 @@
       <c r="D22" s="4">
         <v>232</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4"/>
+      <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>25.52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1550,12 +1603,13 @@
       <c r="D23" s="4">
         <v>41</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4"/>
+      <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>6.91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -1568,12 +1622,13 @@
       <c r="D24" s="4">
         <v>63</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4"/>
+      <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>9.73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -1586,12 +1641,13 @@
       <c r="D25" s="4">
         <v>589</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4"/>
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>41.39</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1604,12 +1660,15 @@
       <c r="D26" s="4">
         <v>120</v>
       </c>
-      <c r="E26" s="5">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1622,12 +1681,13 @@
       <c r="D27" s="4">
         <v>125</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4"/>
+      <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>13.65</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -1640,12 +1700,15 @@
       <c r="D28" s="4">
         <v>338</v>
       </c>
-      <c r="E28" s="5">
-        <f t="shared" si="0"/>
-        <v>27.779999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>30.279999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
@@ -1658,12 +1721,13 @@
       <c r="D29" s="4">
         <v>59</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4"/>
+      <c r="F29" s="5">
         <f t="shared" si="0"/>
         <v>5.89</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
@@ -1676,12 +1740,15 @@
       <c r="D30" s="4">
         <v>185</v>
       </c>
-      <c r="E30" s="5">
-        <f t="shared" si="0"/>
-        <v>24.950000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>27.450000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -1694,12 +1761,15 @@
       <c r="D31" s="4">
         <v>138</v>
       </c>
-      <c r="E31" s="5">
-        <f t="shared" si="0"/>
-        <v>25.08</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>27.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1712,12 +1782,15 @@
       <c r="D32" s="4">
         <v>1780</v>
       </c>
-      <c r="E32" s="5">
-        <f t="shared" si="0"/>
-        <v>83.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -1730,12 +1803,15 @@
       <c r="D33" s="4">
         <v>1159</v>
       </c>
-      <c r="E33" s="5">
-        <f t="shared" si="0"/>
-        <v>57.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>62.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -1748,12 +1824,13 @@
       <c r="D34" s="4">
         <v>0.2</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4"/>
+      <c r="F34" s="5">
         <f t="shared" si="0"/>
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
@@ -1762,12 +1839,13 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="5">
+      <c r="E35" s="4"/>
+      <c r="F35" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -1780,12 +1858,13 @@
       <c r="D36" s="4">
         <v>110</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4"/>
+      <c r="F36" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
@@ -1798,12 +1877,13 @@
       <c r="D37" s="4">
         <v>52</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4"/>
+      <c r="F37" s="5">
         <f t="shared" si="0"/>
         <v>11.42</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
@@ -1816,12 +1896,15 @@
       <c r="D38" s="4">
         <v>642</v>
       </c>
-      <c r="E38" s="5">
-        <f t="shared" si="0"/>
-        <v>56.22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="0"/>
+        <v>58.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
@@ -1834,12 +1917,13 @@
       <c r="D39" s="4">
         <v>102</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4"/>
+      <c r="F39" s="5">
         <f t="shared" si="0"/>
         <v>19.12</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>28</v>
       </c>
@@ -1852,12 +1936,15 @@
       <c r="D40" s="4">
         <v>418</v>
       </c>
-      <c r="E40" s="5">
-        <f t="shared" si="0"/>
-        <v>48.88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="0"/>
+        <v>51.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>29</v>
       </c>
@@ -1870,12 +1957,13 @@
       <c r="D41" s="4">
         <v>32</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4"/>
+      <c r="F41" s="5">
         <f t="shared" si="0"/>
         <v>4.0200000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>34</v>
       </c>
@@ -1888,12 +1976,13 @@
       <c r="D42" s="4">
         <v>154</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4"/>
+      <c r="F42" s="5">
         <f t="shared" si="0"/>
         <v>24.04</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1906,12 +1995,13 @@
       <c r="D43" s="4">
         <v>259</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4"/>
+      <c r="F43" s="5">
         <f t="shared" si="0"/>
         <v>44.39</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>30</v>
       </c>
@@ -1924,12 +2014,13 @@
       <c r="D44" s="4">
         <v>60</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4"/>
+      <c r="F44" s="5">
         <f t="shared" si="0"/>
         <v>13.4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>31</v>
       </c>
@@ -1942,12 +2033,13 @@
       <c r="D45" s="4">
         <v>42</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4"/>
+      <c r="F45" s="5">
         <f t="shared" si="0"/>
         <v>8.32</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>32</v>
       </c>
@@ -1960,12 +2052,13 @@
       <c r="D46" s="4">
         <v>27</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4"/>
+      <c r="F46" s="5">
         <f t="shared" si="0"/>
         <v>5.8699999999999992</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>33</v>
       </c>
@@ -1978,7 +2071,8 @@
       <c r="D47" s="4">
         <v>156</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4"/>
+      <c r="F47" s="5">
         <f t="shared" si="0"/>
         <v>23.06</v>
       </c>
@@ -1992,19 +2086,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2017,11 +2110,14 @@
       <c r="D1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2036,12 +2132,16 @@
         <f>3824+407</f>
         <v>4231</v>
       </c>
-      <c r="E2" s="5">
-        <f>C2+D2/100</f>
-        <v>154.31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E2" s="4">
+        <f>2+2</f>
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <f>C2+D2/100+E2*2.5</f>
+        <v>164.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2056,12 +2156,15 @@
         <f>2029+23</f>
         <v>2052</v>
       </c>
-      <c r="E3" s="5">
-        <f>C3+D3/100</f>
-        <v>122.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <f>C3+D3/100+E3*2.5</f>
+        <v>124.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2074,12 +2177,15 @@
       <c r="D4" s="4">
         <v>1780</v>
       </c>
-      <c r="E4" s="5">
-        <f>C4+D4/100</f>
-        <v>83.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <f>C4+D4/100+E4*2.5</f>
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2092,12 +2198,15 @@
       <c r="D5" s="4">
         <v>1159</v>
       </c>
-      <c r="E5" s="5">
-        <f>C5+D5/100</f>
-        <v>57.19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <f>C5+D5/100+E5*2.5</f>
+        <v>62.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2110,12 +2219,15 @@
       <c r="D6" s="4">
         <v>642</v>
       </c>
-      <c r="E6" s="5">
-        <f>C6+D6/100</f>
-        <v>56.22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <f>C6+D6/100+E6*2.5</f>
+        <v>58.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -2128,48 +2240,55 @@
       <c r="D7" s="4">
         <v>418</v>
       </c>
-      <c r="E7" s="5">
-        <f>C7+D7/100</f>
-        <v>48.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <f>C7+D7/100+E7*2.5</f>
+        <v>51.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>366</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <f>C8+D8/100+E8*2.5</f>
+        <v>47.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>41.8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <v>259</v>
       </c>
-      <c r="E8" s="5">
-        <f>C8+D8/100</f>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
+        <f>C9+D9/100+E9*2.5</f>
         <v>44.39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="D9" s="4">
-        <v>366</v>
-      </c>
-      <c r="E9" s="5">
-        <f>C9+D9/100</f>
-        <v>42.36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2182,12 +2301,13 @@
       <c r="D10" s="4">
         <v>589</v>
       </c>
-      <c r="E10" s="5">
-        <f>C10+D10/100</f>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <f>C10+D10/100+E10*2.5</f>
         <v>41.39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -2200,12 +2320,15 @@
       <c r="D11" s="4">
         <v>374</v>
       </c>
-      <c r="E11" s="5">
-        <f>C11+D11/100</f>
-        <v>29.54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <f>C11+D11/100+E11*2.5</f>
+        <v>34.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -2218,12 +2341,15 @@
       <c r="D12" s="4">
         <v>502</v>
       </c>
-      <c r="E12" s="5">
-        <f>C12+D12/100</f>
-        <v>29.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <f>C12+D12/100+E12*2.5</f>
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -2236,102 +2362,116 @@
       <c r="D13" s="4">
         <v>338</v>
       </c>
-      <c r="E13" s="5">
-        <f>C13+D13/100</f>
-        <v>27.779999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <f>C13+D13/100+E13*2.5</f>
+        <v>30.279999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="4">
+        <v>23.7</v>
+      </c>
+      <c r="D14" s="4">
+        <v>138</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <f>C14+D14/100+E14*2.5</f>
+        <v>27.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>185</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <f>C15+D15/100+E15*2.5</f>
+        <v>27.450000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>268</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <f>C16+D16/100+E16*2.5</f>
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C17" s="4">
         <v>23.2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D17" s="4">
         <v>232</v>
       </c>
-      <c r="E14" s="5">
-        <f>C14+D14/100</f>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5">
+        <f>C17+D17/100+E17*2.5</f>
         <v>25.52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="4">
-        <v>23.7</v>
-      </c>
-      <c r="D15" s="4">
-        <v>138</v>
-      </c>
-      <c r="E15" s="5">
-        <f>C15+D15/100</f>
-        <v>25.08</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="4">
-        <v>23.1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>185</v>
-      </c>
-      <c r="E16" s="5">
-        <f>C16+D16/100</f>
-        <v>24.950000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="4">
         <v>22.5</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="4">
         <v>154</v>
       </c>
-      <c r="E17" s="5">
-        <f>C17+D17/100</f>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5">
+        <f>C18+D18/100+E18*2.5</f>
         <v>24.04</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="4">
-        <v>21</v>
-      </c>
-      <c r="D18" s="4">
-        <v>268</v>
-      </c>
-      <c r="E18" s="5">
-        <f>C18+D18/100</f>
-        <v>23.68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -2344,48 +2484,53 @@
       <c r="D19" s="4">
         <v>156</v>
       </c>
-      <c r="E19" s="5">
-        <f>C19+D19/100</f>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5">
+        <f>C19+D19/100+E19*2.5</f>
         <v>23.06</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>164</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <f>C20+D20/100+E20*2.5</f>
+        <v>21.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C21" s="8">
         <v>18.8</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <v>121</v>
       </c>
-      <c r="E20" s="5">
-        <f>C20+D20/100</f>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5">
+        <f>C21+D21/100+E21*2.5</f>
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>164</v>
-      </c>
-      <c r="E21" s="5">
-        <f>C21+D21/100</f>
-        <v>19.14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -2398,12 +2543,13 @@
       <c r="D22" s="4">
         <v>102</v>
       </c>
-      <c r="E22" s="5">
-        <f>C22+D22/100</f>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5">
+        <f>C22+D22/100+E22*2.5</f>
         <v>19.12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2416,12 +2562,13 @@
       <c r="D23" s="4">
         <v>159</v>
       </c>
-      <c r="E23" s="5">
-        <f>C23+D23/100</f>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5">
+        <f>C23+D23/100+E23*2.5</f>
         <v>18.89</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -2434,12 +2581,13 @@
       <c r="D24" s="4">
         <v>95</v>
       </c>
-      <c r="E24" s="5">
-        <f>C24+D24/100</f>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5">
+        <f>C24+D24/100+E24*2.5</f>
         <v>15.25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -2452,12 +2600,13 @@
       <c r="D25" s="4">
         <v>110</v>
       </c>
-      <c r="E25" s="5">
-        <f>C25+D25/100</f>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5">
+        <f>C25+D25/100+E25*2.5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -2470,12 +2619,13 @@
       <c r="D26" s="4">
         <v>125</v>
       </c>
-      <c r="E26" s="5">
-        <f>C26+D26/100</f>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5">
+        <f>C26+D26/100+E26*2.5</f>
         <v>13.65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -2488,102 +2638,110 @@
       <c r="D27" s="4">
         <v>60</v>
       </c>
-      <c r="E27" s="5">
-        <f>C27+D27/100</f>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5">
+        <f>C27+D27/100+E27*2.5</f>
         <v>13.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D28" s="4">
+        <v>120</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <f>C28+D28/100+E28*2.5</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C29" s="4">
         <v>12.4</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D29" s="4">
         <v>48</v>
       </c>
-      <c r="E28" s="5">
-        <f>C28+D28/100</f>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5">
+        <f>C29+D29/100+E29*2.5</f>
         <v>12.88</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C30" s="4">
         <v>11.6</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D30" s="4">
         <v>89</v>
       </c>
-      <c r="E29" s="5">
-        <f>C29+D29/100</f>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5">
+        <f>C30+D30/100+E30*2.5</f>
         <v>12.49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C31" s="4">
         <v>10.9</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D31" s="4">
         <v>52</v>
       </c>
-      <c r="E30" s="5">
-        <f>C30+D30/100</f>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5">
+        <f>C31+D31/100+E31*2.5</f>
         <v>11.42</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C32" s="4">
         <v>10.3</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D32" s="4">
         <v>39</v>
       </c>
-      <c r="E31" s="5">
-        <f>C31+D31/100</f>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5">
+        <f>C32+D32/100+E32*2.5</f>
         <v>10.690000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D32" s="4">
-        <v>120</v>
-      </c>
-      <c r="E32" s="5">
-        <f>C32+D32/100</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -2596,12 +2754,13 @@
       <c r="D33" s="4">
         <v>41</v>
       </c>
-      <c r="E33" s="5">
-        <f>C33+D33/100</f>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5">
+        <f>C33+D33/100+E33*2.5</f>
         <v>9.91</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
@@ -2614,12 +2773,13 @@
       <c r="D34" s="4">
         <v>63</v>
       </c>
-      <c r="E34" s="5">
-        <f>C34+D34/100</f>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5">
+        <f>C34+D34/100+E34*2.5</f>
         <v>9.73</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -2632,12 +2792,13 @@
       <c r="D35" s="4">
         <v>42</v>
       </c>
-      <c r="E35" s="5">
-        <f>C35+D35/100</f>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5">
+        <f>C35+D35/100+E35*2.5</f>
         <v>8.32</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -2650,12 +2811,13 @@
       <c r="D36" s="4">
         <v>107</v>
       </c>
-      <c r="E36" s="5">
-        <f>C36+D36/100</f>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5">
+        <f>C36+D36/100+E36*2.5</f>
         <v>7.67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2668,12 +2830,13 @@
       <c r="D37" s="4">
         <v>41</v>
       </c>
-      <c r="E37" s="5">
-        <f>C37+D37/100</f>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5">
+        <f>C37+D37/100+E37*2.5</f>
         <v>6.91</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2686,12 +2849,13 @@
       <c r="D38" s="4">
         <v>59</v>
       </c>
-      <c r="E38" s="5">
-        <f>C38+D38/100</f>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5">
+        <f>C38+D38/100+E38*2.5</f>
         <v>5.89</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -2704,12 +2868,13 @@
       <c r="D39" s="4">
         <v>27</v>
       </c>
-      <c r="E39" s="5">
-        <f>C39+D39/100</f>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5">
+        <f>C39+D39/100+E39*2.5</f>
         <v>5.8699999999999992</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -2722,12 +2887,13 @@
       <c r="D40" s="4">
         <v>32</v>
       </c>
-      <c r="E40" s="5">
-        <f>C40+D40/100</f>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5">
+        <f>C40+D40/100+E40*2.5</f>
         <v>4.0200000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -2740,12 +2906,13 @@
       <c r="D41" s="4">
         <v>18</v>
       </c>
-      <c r="E41" s="5">
-        <f>C41+D41/100</f>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5">
+        <f>C41+D41/100+E41*2.5</f>
         <v>2.68</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2758,12 +2925,13 @@
       <c r="D42" s="4">
         <v>39</v>
       </c>
-      <c r="E42" s="5">
-        <f>C42+D42/100</f>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5">
+        <f>C42+D42/100+E42*2.5</f>
         <v>2.39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
@@ -2776,12 +2944,13 @@
       <c r="D43" s="4">
         <v>9</v>
       </c>
-      <c r="E43" s="5">
-        <f>C43+D43/100</f>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5">
+        <f>C43+D43/100+E43*2.5</f>
         <v>1.99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -2794,12 +2963,13 @@
       <c r="D44" s="4">
         <v>1</v>
       </c>
-      <c r="E44" s="5">
-        <f>C44+D44/100</f>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5">
+        <f>C44+D44/100+E44*2.5</f>
         <v>0.51</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>38</v>
       </c>
@@ -2812,12 +2982,13 @@
       <c r="D45" s="4">
         <v>0.2</v>
       </c>
-      <c r="E45" s="5">
-        <f>C45+D45/100</f>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5">
+        <f>C45+D45/100+E45*2.5</f>
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>36</v>
       </c>
@@ -2826,12 +2997,13 @@
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="5">
-        <f>C46+D46/100</f>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5">
+        <f>C46+D46/100+E46*2.5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
@@ -2840,14 +3012,15 @@
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="5">
-        <f>C47+D47/100</f>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5">
+        <f>C47+D47/100+E47*2.5</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E47">
-    <sortCondition descending="1" ref="E1"/>
+  <sortState ref="A2:F47">
+    <sortCondition descending="1" ref="F1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/air/air.xlsx
+++ b/air/air.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="34280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -736,10 +736,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联通地铁
+    <t>接驳地铁
 (建成)</t>
     <rPh sb="0" eb="1">
-      <t>buce</t>
+      <t>rucq</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fbqr</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>vfdn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接驳地铁
+(建成)</t>
+    <rPh sb="0" eb="1">
+      <t>ruc</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>fbqr</t>
@@ -1142,8 +1156,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1170,7 +1183,7 @@
         <v>95</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>47</v>
@@ -2089,7 +2102,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2137,7 +2150,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5">
-        <f>C2+D2/100+E2*2.5</f>
+        <f t="shared" ref="F2:F47" si="0">C2+D2/100+E2*2.5</f>
         <v>164.31</v>
       </c>
     </row>
@@ -2160,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5">
-        <f>C3+D3/100+E3*2.5</f>
+        <f t="shared" si="0"/>
         <v>124.72</v>
       </c>
     </row>
@@ -2181,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="5">
-        <f>C4+D4/100+E4*2.5</f>
+        <f t="shared" si="0"/>
         <v>88.6</v>
       </c>
     </row>
@@ -2202,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5">
-        <f>C5+D5/100+E5*2.5</f>
+        <f t="shared" si="0"/>
         <v>62.19</v>
       </c>
     </row>
@@ -2223,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="5">
-        <f>C6+D6/100+E6*2.5</f>
+        <f t="shared" si="0"/>
         <v>58.72</v>
       </c>
     </row>
@@ -2244,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5">
-        <f>C7+D7/100+E7*2.5</f>
+        <f t="shared" si="0"/>
         <v>51.38</v>
       </c>
     </row>
@@ -2265,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="5">
-        <f>C8+D8/100+E8*2.5</f>
+        <f t="shared" si="0"/>
         <v>47.36</v>
       </c>
     </row>
@@ -2284,7 +2297,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5">
-        <f>C9+D9/100+E9*2.5</f>
+        <f t="shared" si="0"/>
         <v>44.39</v>
       </c>
     </row>
@@ -2303,7 +2316,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5">
-        <f>C10+D10/100+E10*2.5</f>
+        <f t="shared" si="0"/>
         <v>41.39</v>
       </c>
     </row>
@@ -2324,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="5">
-        <f>C11+D11/100+E11*2.5</f>
+        <f t="shared" si="0"/>
         <v>34.54</v>
       </c>
     </row>
@@ -2345,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="5">
-        <f>C12+D12/100+E12*2.5</f>
+        <f t="shared" si="0"/>
         <v>31.72</v>
       </c>
     </row>
@@ -2366,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="5">
-        <f>C13+D13/100+E13*2.5</f>
+        <f t="shared" si="0"/>
         <v>30.279999999999998</v>
       </c>
     </row>
@@ -2387,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="5">
-        <f>C14+D14/100+E14*2.5</f>
+        <f t="shared" si="0"/>
         <v>27.58</v>
       </c>
     </row>
@@ -2408,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="5">
-        <f>C15+D15/100+E15*2.5</f>
+        <f t="shared" si="0"/>
         <v>27.450000000000003</v>
       </c>
     </row>
@@ -2429,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="5">
-        <f>C16+D16/100+E16*2.5</f>
+        <f t="shared" si="0"/>
         <v>26.18</v>
       </c>
     </row>
@@ -2448,7 +2461,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5">
-        <f>C17+D17/100+E17*2.5</f>
+        <f t="shared" si="0"/>
         <v>25.52</v>
       </c>
     </row>
@@ -2467,7 +2480,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="5">
-        <f>C18+D18/100+E18*2.5</f>
+        <f t="shared" si="0"/>
         <v>24.04</v>
       </c>
     </row>
@@ -2486,7 +2499,7 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5">
-        <f>C19+D19/100+E19*2.5</f>
+        <f t="shared" si="0"/>
         <v>23.06</v>
       </c>
     </row>
@@ -2507,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="5">
-        <f>C20+D20/100+E20*2.5</f>
+        <f t="shared" si="0"/>
         <v>21.64</v>
       </c>
     </row>
@@ -2526,7 +2539,7 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="5">
-        <f>C21+D21/100+E21*2.5</f>
+        <f t="shared" si="0"/>
         <v>20.010000000000002</v>
       </c>
     </row>
@@ -2545,7 +2558,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5">
-        <f>C22+D22/100+E22*2.5</f>
+        <f t="shared" si="0"/>
         <v>19.12</v>
       </c>
     </row>
@@ -2564,7 +2577,7 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="5">
-        <f>C23+D23/100+E23*2.5</f>
+        <f t="shared" si="0"/>
         <v>18.89</v>
       </c>
     </row>
@@ -2583,7 +2596,7 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5">
-        <f>C24+D24/100+E24*2.5</f>
+        <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
     </row>
@@ -2602,7 +2615,7 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="5">
-        <f>C25+D25/100+E25*2.5</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2621,7 +2634,7 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="5">
-        <f>C26+D26/100+E26*2.5</f>
+        <f t="shared" si="0"/>
         <v>13.65</v>
       </c>
     </row>
@@ -2640,7 +2653,7 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="5">
-        <f>C27+D27/100+E27*2.5</f>
+        <f t="shared" si="0"/>
         <v>13.4</v>
       </c>
     </row>
@@ -2661,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="5">
-        <f>C28+D28/100+E28*2.5</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -2680,7 +2693,7 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="5">
-        <f>C29+D29/100+E29*2.5</f>
+        <f t="shared" si="0"/>
         <v>12.88</v>
       </c>
     </row>
@@ -2699,7 +2712,7 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5">
-        <f>C30+D30/100+E30*2.5</f>
+        <f t="shared" si="0"/>
         <v>12.49</v>
       </c>
     </row>
@@ -2718,7 +2731,7 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="5">
-        <f>C31+D31/100+E31*2.5</f>
+        <f t="shared" si="0"/>
         <v>11.42</v>
       </c>
     </row>
@@ -2737,7 +2750,7 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5">
-        <f>C32+D32/100+E32*2.5</f>
+        <f t="shared" si="0"/>
         <v>10.690000000000001</v>
       </c>
     </row>
@@ -2756,7 +2769,7 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="5">
-        <f>C33+D33/100+E33*2.5</f>
+        <f t="shared" si="0"/>
         <v>9.91</v>
       </c>
     </row>
@@ -2775,7 +2788,7 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="5">
-        <f>C34+D34/100+E34*2.5</f>
+        <f t="shared" si="0"/>
         <v>9.73</v>
       </c>
     </row>
@@ -2794,7 +2807,7 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5">
-        <f>C35+D35/100+E35*2.5</f>
+        <f t="shared" si="0"/>
         <v>8.32</v>
       </c>
     </row>
@@ -2813,7 +2826,7 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="5">
-        <f>C36+D36/100+E36*2.5</f>
+        <f t="shared" si="0"/>
         <v>7.67</v>
       </c>
     </row>
@@ -2832,7 +2845,7 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="5">
-        <f>C37+D37/100+E37*2.5</f>
+        <f t="shared" si="0"/>
         <v>6.91</v>
       </c>
     </row>
@@ -2851,7 +2864,7 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5">
-        <f>C38+D38/100+E38*2.5</f>
+        <f t="shared" si="0"/>
         <v>5.89</v>
       </c>
     </row>
@@ -2870,7 +2883,7 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="5">
-        <f>C39+D39/100+E39*2.5</f>
+        <f t="shared" si="0"/>
         <v>5.8699999999999992</v>
       </c>
     </row>
@@ -2889,7 +2902,7 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5">
-        <f>C40+D40/100+E40*2.5</f>
+        <f t="shared" si="0"/>
         <v>4.0200000000000005</v>
       </c>
     </row>
@@ -2908,7 +2921,7 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5">
-        <f>C41+D41/100+E41*2.5</f>
+        <f t="shared" si="0"/>
         <v>2.68</v>
       </c>
     </row>
@@ -2927,7 +2940,7 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="5">
-        <f>C42+D42/100+E42*2.5</f>
+        <f t="shared" si="0"/>
         <v>2.39</v>
       </c>
     </row>
@@ -2946,7 +2959,7 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="5">
-        <f>C43+D43/100+E43*2.5</f>
+        <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
     </row>
@@ -2965,7 +2978,7 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5">
-        <f>C44+D44/100+E44*2.5</f>
+        <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
     </row>
@@ -2984,7 +2997,7 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="5">
-        <f>C45+D45/100+E45*2.5</f>
+        <f t="shared" si="0"/>
         <v>0.40200000000000002</v>
       </c>
     </row>
@@ -2999,7 +3012,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="5">
-        <f>C46+D46/100+E46*2.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3014,7 +3027,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="5">
-        <f>C47+D47/100+E47*2.5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
